--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -16,15 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
   <si>
     <t>Free</t>
   </si>
   <si>
     <t>Occupied</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>17:38:12</t>
   </si>
 </sst>
 </file>
@@ -401,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,21 +421,38 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,21 +460,38 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,20 +500,37 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,20 +539,37 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,21 +577,38 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,10 +617,27 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>